--- a/biology/Botanique/Bois_de_nèfles_à_petites_feuilles/Bois_de_nèfles_à_petites_feuilles.xlsx
+++ b/biology/Botanique/Bois_de_nèfles_à_petites_feuilles/Bois_de_nèfles_à_petites_feuilles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bois_de_n%C3%A8fles_%C3%A0_petites_feuilles</t>
+          <t>Bois_de_nèfles_à_petites_feuilles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eugenia buxifolia
 Le bois de nèfles à petites feuilles (Eugenia buxifolia), ou bois de nèfles à feuilles de buis, est un arbuste endémique de l'île de La Réunion de la famille des Myrtacées pouvant atteindre au maximum une hauteur de 5 mètres.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bois_de_n%C3%A8fles_%C3%A0_petites_feuilles</t>
+          <t>Bois_de_nèfles_à_petites_feuilles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bois de nèfles à petites feuilles est assez fréquent dans les forêts de montagne, devenu beaucoup plus rare dans les vestiges de la forêt sèche de basse altitude. Il a donné son nom à de nombreux quartiers des villes de la Réunion généralement situés dans les Hauts.
 L'espèce développe une hétérophyllie uniquement en forêt sèche, où les plantes juvéniles portent des feuilles allongées et étroites (et non pas rondes).
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bois_de_n%C3%A8fles_%C3%A0_petites_feuilles</t>
+          <t>Bois_de_nèfles_à_petites_feuilles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Remarque</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Attention à ne pas confondre Eugenia buxifolia Lam. avec Eugenia buxifolia (Sw.) Willd. qui est en réalité Eugenia foetida Pers.</t>
         </is>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bois_de_n%C3%A8fles_%C3%A0_petites_feuilles</t>
+          <t>Bois_de_nèfles_à_petites_feuilles</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Flore endémique de La Réunion.</t>
         </is>
